--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/50.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/50.xlsx
@@ -479,13 +479,13 @@
         <v>-0.08167584520852884</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.573986739768541</v>
+        <v>-1.571521825824584</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01388847185695684</v>
+        <v>0.02250937458432071</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1708761886778031</v>
+        <v>-0.130845734384884</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.06543185462180846</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.586386075396587</v>
+        <v>-1.567635572614093</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02375599772839086</v>
+        <v>0.03477885363485957</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1378690077041277</v>
+        <v>-0.09119619271931967</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.05553143737945633</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.65199197938196</v>
+        <v>-1.649557758810869</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.03089866822053293</v>
+        <v>-0.02396353997208209</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1445648850461408</v>
+        <v>-0.09732384915854325</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.05465443907323571</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.780010889565149</v>
+        <v>-1.791244664033872</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.0706678353393161</v>
+        <v>-0.08424532427965584</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.154119181112436</v>
+        <v>-0.1046225758240145</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.05651058064171455</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.799221792940624</v>
+        <v>-1.856353964986474</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.08395255672309392</v>
+        <v>-0.1151401715925457</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1508751277034353</v>
+        <v>-0.1037899197088465</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.05682825955479826</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.621563041728975</v>
+        <v>-1.674828635803352</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.06267339222222991</v>
+        <v>-0.1309102691688573</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1412059282412851</v>
+        <v>-0.1048634007495736</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.05310188644887009</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.32173128735065</v>
+        <v>-1.331723160732667</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.06675167576551999</v>
+        <v>-0.1327125210627466</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1091588989316031</v>
+        <v>-0.06031078952115758</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.04466055338920417</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.84880701123157</v>
+        <v>-0.8094415800174004</v>
       </c>
       <c r="F9" t="n">
-        <v>0.008176356465756648</v>
+        <v>-0.08151125306595654</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1063618669530518</v>
+        <v>-0.07149734341624156</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.03007049904423082</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.3502309454926525</v>
+        <v>-0.2699292119812554</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01185641317135766</v>
+        <v>-0.1040165784623138</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.03982020860006522</v>
+        <v>0.01304322358881838</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.006025102506917845</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1911009886477161</v>
+        <v>0.3155948830087514</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.02091309091500136</v>
+        <v>-0.1183637627529695</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03221320246713945</v>
+        <v>0.08324605041795036</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.03106254927542914</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8143873763768477</v>
+        <v>0.9767836511788035</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.07495861146398178</v>
+        <v>-0.2224127227474302</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1130217701355955</v>
+        <v>0.1443195663435383</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.08328620740715199</v>
       </c>
       <c r="E13" t="n">
-        <v>1.46080082705525</v>
+        <v>1.678728496456694</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.2212070241005139</v>
+        <v>-0.3870094762809644</v>
       </c>
       <c r="G13" t="n">
-        <v>0.215887067750838</v>
+        <v>0.2516188758234849</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.1510160241751095</v>
       </c>
       <c r="E14" t="n">
-        <v>2.112866580398244</v>
+        <v>2.348602702138084</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.4539304732421845</v>
+        <v>-0.6271024829485649</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3303355720797323</v>
+        <v>0.3655747121674121</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.2321524026650697</v>
       </c>
       <c r="E15" t="n">
-        <v>2.799031883985095</v>
+        <v>3.062790268141451</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.7454089081437671</v>
+        <v>-0.9310432142430457</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4688964753278319</v>
+        <v>0.5147665405607765</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.3216874978917935</v>
       </c>
       <c r="E16" t="n">
-        <v>3.464700310574369</v>
+        <v>3.738656764617632</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.9833163892614416</v>
+        <v>-1.169970659751323</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6304837043014392</v>
+        <v>0.6751543669639527</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.4130603198746465</v>
       </c>
       <c r="E17" t="n">
-        <v>4.104888515628027</v>
+        <v>4.399359160879203</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.255746831766604</v>
+        <v>-1.474375726686588</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8019589213950574</v>
+        <v>0.8443252200639867</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.5020369467650883</v>
       </c>
       <c r="E18" t="n">
-        <v>4.737823640570732</v>
+        <v>5.077599278190305</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.473436824280732</v>
+        <v>-1.682599568205213</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9540910175070115</v>
+        <v>0.9981242024253982</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.5869874762010873</v>
       </c>
       <c r="E19" t="n">
-        <v>5.223784730061985</v>
+        <v>5.553576364395147</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.690451562591821</v>
+        <v>-1.924895414633074</v>
       </c>
       <c r="G19" t="n">
-        <v>1.125777153162884</v>
+        <v>1.167507548106808</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.6673124851297837</v>
       </c>
       <c r="E20" t="n">
-        <v>5.63508222253434</v>
+        <v>5.997138100815924</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.842541947197061</v>
+        <v>-2.076447484698829</v>
       </c>
       <c r="G20" t="n">
-        <v>1.254478400635156</v>
+        <v>1.296301662707237</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.7420118450279678</v>
       </c>
       <c r="E21" t="n">
-        <v>5.94668291788263</v>
+        <v>6.288141181942874</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.043468636069337</v>
+        <v>-2.268514806946863</v>
       </c>
       <c r="G21" t="n">
-        <v>1.375145854512309</v>
+        <v>1.412374554769313</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.8095607676208934</v>
       </c>
       <c r="E22" t="n">
-        <v>6.26628120438625</v>
+        <v>6.615590675823541</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.154694336247367</v>
+        <v>-2.366721007963055</v>
       </c>
       <c r="G22" t="n">
-        <v>1.476863692188124</v>
+        <v>1.506911717213754</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.8676332911065507</v>
       </c>
       <c r="E23" t="n">
-        <v>6.406486957616109</v>
+        <v>6.748552793057174</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.25039548583201</v>
+        <v>-2.456706894118255</v>
       </c>
       <c r="G23" t="n">
-        <v>1.582023909682223</v>
+        <v>1.607172013183244</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.9143962315139046</v>
       </c>
       <c r="E24" t="n">
-        <v>6.556412278919999</v>
+        <v>6.876852665653515</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.316439754142666</v>
+        <v>-2.505112704155615</v>
       </c>
       <c r="G24" t="n">
-        <v>1.595152803172992</v>
+        <v>1.619943604333478</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.9486803828081545</v>
       </c>
       <c r="E25" t="n">
-        <v>6.642533161122845</v>
+        <v>6.966648882504598</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.324327950969064</v>
+        <v>-2.520285461475393</v>
       </c>
       <c r="G25" t="n">
-        <v>1.648309002918437</v>
+        <v>1.668761807380618</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.9695769545641266</v>
       </c>
       <c r="E26" t="n">
-        <v>6.660928722593487</v>
+        <v>6.944291514905642</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.338257233183014</v>
+        <v>-2.556886128102998</v>
       </c>
       <c r="G26" t="n">
-        <v>1.694739418958565</v>
+        <v>1.682347166416565</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.9764736012070365</v>
       </c>
       <c r="E27" t="n">
-        <v>6.619371469752905</v>
+        <v>6.875657985140448</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.270952175556197</v>
+        <v>-2.454058606946667</v>
       </c>
       <c r="G27" t="n">
-        <v>1.65519848461237</v>
+        <v>1.651778141061784</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.9704119809199411</v>
       </c>
       <c r="E28" t="n">
-        <v>6.523866285548865</v>
+        <v>6.740111328509639</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.231457674774081</v>
+        <v>-2.372125402616041</v>
       </c>
       <c r="G28" t="n">
-        <v>1.618994470803333</v>
+        <v>1.585223890555827</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.9532723491806367</v>
       </c>
       <c r="E29" t="n">
-        <v>6.391998111604536</v>
+        <v>6.569604133175621</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.154918633972153</v>
+        <v>-2.296413508862357</v>
       </c>
       <c r="G29" t="n">
-        <v>1.576524286872398</v>
+        <v>1.528803175152804</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.9281286911383269</v>
       </c>
       <c r="E30" t="n">
-        <v>6.233502256185163</v>
+        <v>6.36907094908367</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.129499012172707</v>
+        <v>-2.253292468024764</v>
       </c>
       <c r="G30" t="n">
-        <v>1.507733355195073</v>
+        <v>1.46421330051023</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.8986842854705549</v>
       </c>
       <c r="E31" t="n">
-        <v>5.984860751669779</v>
+        <v>6.081980879492273</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.994494605129187</v>
+        <v>-2.059630664406852</v>
       </c>
       <c r="G31" t="n">
-        <v>1.433730846207121</v>
+        <v>1.38755069920728</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.8674182384518035</v>
       </c>
       <c r="E32" t="n">
-        <v>5.756251788511189</v>
+        <v>5.811959473252262</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.889139209264047</v>
+        <v>-1.932584498040627</v>
       </c>
       <c r="G32" t="n">
-        <v>1.366260516572567</v>
+        <v>1.296169445101047</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.8357190632414065</v>
       </c>
       <c r="E33" t="n">
-        <v>5.431975517179063</v>
+        <v>5.444780162730845</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.838787124583198</v>
+        <v>-1.862945957066482</v>
       </c>
       <c r="G33" t="n">
-        <v>1.295092816022078</v>
+        <v>1.216044001731236</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.8038564681739738</v>
       </c>
       <c r="E34" t="n">
-        <v>5.153910873229205</v>
+        <v>5.122304569273487</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.763537205441616</v>
+        <v>-1.788004545672674</v>
       </c>
       <c r="G34" t="n">
-        <v>1.186753079902951</v>
+        <v>1.096719186164552</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.7705202961133663</v>
       </c>
       <c r="E35" t="n">
-        <v>4.785223652389581</v>
+        <v>4.718511999971494</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.720605046898579</v>
+        <v>-1.735533044244994</v>
       </c>
       <c r="G35" t="n">
-        <v>1.108167027233772</v>
+        <v>1.019770113381525</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.7352391075756535</v>
       </c>
       <c r="E36" t="n">
-        <v>4.345609555925027</v>
+        <v>4.254530513490083</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.656847828371173</v>
+        <v>-1.648137993563456</v>
       </c>
       <c r="G36" t="n">
-        <v>1.049292416020641</v>
+        <v>0.9510122361057474</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.6983777402647312</v>
       </c>
       <c r="E37" t="n">
-        <v>3.995262805886798</v>
+        <v>3.867975027585454</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.620647749609939</v>
+        <v>-1.611157988327617</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9670011223399197</v>
+        <v>0.8731093077352124</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.6600607189160906</v>
       </c>
       <c r="E38" t="n">
-        <v>3.669508530599772</v>
+        <v>3.509846327011515</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.537746523519714</v>
+        <v>-1.525556532434801</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8789142902545694</v>
+        <v>0.7767856335880955</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.6215644661038612</v>
       </c>
       <c r="E39" t="n">
-        <v>3.267208131424772</v>
+        <v>3.078445462321908</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.512563004588463</v>
+        <v>-1.49622153807112</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8072554957382342</v>
+        <v>0.7137760741433077</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.5837502699178888</v>
       </c>
       <c r="E40" t="n">
-        <v>2.88080689939403</v>
+        <v>2.662262214497035</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.501225344857735</v>
+        <v>-1.483021026710332</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7373816389054541</v>
+        <v>0.6406266835191008</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.5461863974045882</v>
       </c>
       <c r="E41" t="n">
-        <v>2.536343832831223</v>
+        <v>2.317687392576617</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.474515814388383</v>
+        <v>-1.445885193581484</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6861536125836019</v>
+        <v>0.5863859845990791</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.5091089059258662</v>
       </c>
       <c r="E42" t="n">
-        <v>2.173652050824634</v>
+        <v>1.946283414733628</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.43991336503527</v>
+        <v>-1.409733909413011</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6201266584832806</v>
+        <v>0.5234425339573859</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.4724249462655961</v>
       </c>
       <c r="E43" t="n">
-        <v>1.921072350467755</v>
+        <v>1.704315751292558</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.40599325297124</v>
+        <v>-1.387389920976587</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5431649935472835</v>
+        <v>0.4447116715290468</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.4361307425830104</v>
       </c>
       <c r="E44" t="n">
-        <v>1.687160516889502</v>
+        <v>1.493035164640367</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.399469730723009</v>
+        <v>-1.379966059790972</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4675034684054807</v>
+        <v>0.3807781628600554</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.4008288815785109</v>
       </c>
       <c r="E45" t="n">
-        <v>1.465351316334931</v>
+        <v>1.268877527556815</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.325981925987723</v>
+        <v>-1.307401417270329</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4121751222726403</v>
+        <v>0.3164055028562212</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.3661570182611071</v>
       </c>
       <c r="E46" t="n">
-        <v>1.241020537148035</v>
+        <v>1.043076614510625</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.263154952761006</v>
+        <v>-1.248991928707542</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3643485512719189</v>
+        <v>0.2799512200068973</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.3318955614346485</v>
       </c>
       <c r="E47" t="n">
-        <v>1.104266607851189</v>
+        <v>0.9112304768339937</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.212379456936527</v>
+        <v>-1.188818751719338</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2926110557995187</v>
+        <v>0.2026338267494862</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.2990377647228527</v>
       </c>
       <c r="E48" t="n">
-        <v>0.916523903138928</v>
+        <v>0.7543841934537441</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.132978849372075</v>
+        <v>-1.112737750481709</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2199637772750068</v>
+        <v>0.1475368614274769</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.2681575377994289</v>
       </c>
       <c r="E49" t="n">
-        <v>0.7527424915102275</v>
+        <v>0.5850181619826688</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.067290309382833</v>
+        <v>-1.057972903194294</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1751593229871827</v>
+        <v>0.09935456210534159</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.2396679643493881</v>
       </c>
       <c r="E50" t="n">
-        <v>0.6654111886031014</v>
+        <v>0.5046219873239935</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.003327681360098</v>
+        <v>-1.004344497712458</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1491014364340498</v>
+        <v>0.09018275268552248</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.2136834047025106</v>
       </c>
       <c r="E51" t="n">
-        <v>0.5405127713278919</v>
+        <v>0.3851743982658483</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.9801833042004925</v>
+        <v>-0.9845622253959511</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1278868067171592</v>
+        <v>0.08409129868608882</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.1896912619578119</v>
       </c>
       <c r="E52" t="n">
-        <v>0.3804318786533693</v>
+        <v>0.2633689285639946</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.9644320948536366</v>
+        <v>-0.9871837542424773</v>
       </c>
       <c r="G52" t="n">
-        <v>0.07597408207754118</v>
+        <v>0.02421403729268936</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.1671304028030492</v>
       </c>
       <c r="E53" t="n">
-        <v>0.3197046469344675</v>
+        <v>0.1885306154226321</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.9519690114511777</v>
+        <v>-0.9435983777641006</v>
       </c>
       <c r="G53" t="n">
-        <v>0.06990623836492703</v>
+        <v>0.03090519257733858</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.1453565369994994</v>
       </c>
       <c r="E54" t="n">
-        <v>0.1918990163422155</v>
+        <v>0.1066060681971739</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.9075021842648726</v>
+        <v>-0.9198527253001585</v>
       </c>
       <c r="G54" t="n">
-        <v>0.02851583155120414</v>
+        <v>-0.005180769797600988</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.1237108705485547</v>
       </c>
       <c r="E55" t="n">
-        <v>0.1147657833219966</v>
+        <v>0.06508659181550432</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.9071472429530193</v>
+        <v>-0.9339024199768884</v>
       </c>
       <c r="G55" t="n">
-        <v>0.01138892949233135</v>
+        <v>-0.02302857261402949</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.1021945216629964</v>
       </c>
       <c r="E56" t="n">
-        <v>0.03405637885818256</v>
+        <v>-0.005355485920065364</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.9084206244221515</v>
+        <v>-0.9471493649017549</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.02396039193383949</v>
+        <v>-0.05272559137560957</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.08094522836258926</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.06945269257767198</v>
+        <v>-0.09693191839733938</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.9273552874418381</v>
+        <v>-0.9790264001463366</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.06322272489556385</v>
+        <v>-0.08665514755436719</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.05926078157664551</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.1159885678989268</v>
+        <v>-0.1320813393951051</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.9200754490058225</v>
+        <v>-0.9809923500288411</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.09162275190119216</v>
+        <v>-0.1118394534951782</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.03675858584088689</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.1937388164146956</v>
+        <v>-0.1991203877904226</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.9291016616569213</v>
+        <v>-0.983216439047239</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1077170974164917</v>
+        <v>-0.1187761557627503</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.01302048308012391</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.2782699393050277</v>
+        <v>-0.2690414651968418</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.9506649366091801</v>
+        <v>-1.025473343387238</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1199015794344803</v>
+        <v>-0.1254673110473996</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.01191995246405072</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.3621824726806887</v>
+        <v>-0.3380921100291817</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.9312281614897986</v>
+        <v>-1.004215428144511</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1536989180070487</v>
+        <v>-0.1603711850622423</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.03743851613753405</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.4833961111929334</v>
+        <v>-0.4666642879335071</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.9490617981341354</v>
+        <v>-1.041052984649872</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1762168355563763</v>
+        <v>-0.1861221378867216</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.06280319760603013</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.5338087956099518</v>
+        <v>-0.5289985931752569</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.9685316276550642</v>
+        <v>-1.081526525325437</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2074910214774997</v>
+        <v>-0.219768370623645</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.0875591416867802</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.6726703365102198</v>
+        <v>-0.6637503701498088</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.003093939520585</v>
+        <v>-1.123764541435981</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2534712680489354</v>
+        <v>-0.2710955601501392</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.1113618412922933</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.826996615277267</v>
+        <v>-0.8171999202662915</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.057583333461772</v>
+        <v>-1.189670296063962</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.310915095880804</v>
+        <v>-0.335183322693018</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.1337301737638867</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.9322937724349191</v>
+        <v>-0.9297021499516975</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.08513575117058</v>
+        <v>-1.220691851916116</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3437743190570771</v>
+        <v>-0.3636541805591048</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.1539381219276691</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.006339566948707</v>
+        <v>-1.021809813882411</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.135891571756042</v>
+        <v>-1.28487090756803</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3975994769290754</v>
+        <v>-0.4381430614555386</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.1709184849370106</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.090107290565208</v>
+        <v>-1.133895715510232</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.183098766232531</v>
+        <v>-1.351541635488964</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.4215072533625116</v>
+        <v>-0.439699766366505</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.1828643677539744</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.223289770475823</v>
+        <v>-1.30240548057932</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.238032820575486</v>
+        <v>-1.411466117456002</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4508139153820091</v>
+        <v>-0.4742762444041171</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.1878518265577792</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.272109547542085</v>
+        <v>-1.363592325881642</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.315488727515572</v>
+        <v>-1.508535876666616</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4810398045683462</v>
+        <v>-0.5154258262922811</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.1845687278265141</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.320788449896991</v>
+        <v>-1.423569537489244</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.341430136653728</v>
+        <v>-1.557723187197702</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.5302483643575696</v>
+        <v>-0.5766567441299991</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.1727403007283635</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.385745070994828</v>
+        <v>-1.493297010543743</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.389357444878213</v>
+        <v>-1.601227501691331</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.5149504725176483</v>
+        <v>-0.5768786808261025</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.1523887986701319</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.41072554145943</v>
+        <v>-1.564216803082628</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.399453990531796</v>
+        <v>-1.60734964906363</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5374164474359729</v>
+        <v>-0.6078380629229657</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.1242658595210135</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.449199290841383</v>
+        <v>-1.616742608169992</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.431826841799587</v>
+        <v>-1.635644216788132</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.544787578981024</v>
+        <v>-0.6126215070325985</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.08956296296653414</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.436197105889879</v>
+        <v>-1.622033673446244</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.42942174058224</v>
+        <v>-1.62392879246829</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.5620561427608139</v>
+        <v>-0.6308549445337457</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.04976347097413353</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.351148130708639</v>
+        <v>-1.530576866422189</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.480353851309288</v>
+        <v>-1.691927205518041</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.543138006941901</v>
+        <v>-0.6135942508495623</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.006177993383622303</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.297477226710528</v>
+        <v>-1.451023579002971</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.488345933397692</v>
+        <v>-1.697211187708247</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.5208294339357064</v>
+        <v>-0.590146087999546</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.04017096100891102</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.131684218644805</v>
+        <v>-1.283505445980302</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.445752975975295</v>
+        <v>-1.641210735410611</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4802213146252698</v>
+        <v>-0.548137091671152</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.08822963295021875</v>
       </c>
       <c r="E79" t="n">
-        <v>-1.012741102715037</v>
+        <v>-1.155093031016789</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.435216491977308</v>
+        <v>-1.611625472006644</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.4786772018672739</v>
+        <v>-0.5636679383410258</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.1367236882771689</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.8375519875047094</v>
+        <v>-0.9682317770124564</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.408754869519562</v>
+        <v>-1.573240654705044</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.464062434325997</v>
+        <v>-0.5488941948684976</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.1843148410012275</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.6917694845280823</v>
+        <v>-0.8214182915113774</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.38884588866379</v>
+        <v>-1.533369176343377</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.4374520670612876</v>
+        <v>-0.5131434985663951</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.2290706717899177</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.4989033475759878</v>
+        <v>-0.5968671496475</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.392091516091912</v>
+        <v>-1.525230710476691</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.3959845333106209</v>
+        <v>-0.460240715899479</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.2702044691878824</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.2950647233293061</v>
+        <v>-0.3815759622742345</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.322170438685493</v>
+        <v>-1.414283611683131</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.3163879603655665</v>
+        <v>-0.3771954670596546</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.3071850626641524</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.1144208448541113</v>
+        <v>-0.185056526941601</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.306612833690557</v>
+        <v>-1.364705157400401</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.294121885875647</v>
+        <v>-0.3524865148934764</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.3396232444692978</v>
       </c>
       <c r="E85" t="n">
-        <v>0.07148497954359161</v>
+        <v>0.01029656022214867</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.195737352767015</v>
+        <v>-1.237442563404998</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2593093049698396</v>
+        <v>-0.3293893583075101</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.3679815501875935</v>
       </c>
       <c r="E86" t="n">
-        <v>0.3201186139633695</v>
+        <v>0.2771919644872572</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.10184789919099</v>
+        <v>-1.124920658480576</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1963516881560547</v>
+        <v>-0.2719502525330055</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.3924068106302966</v>
       </c>
       <c r="E87" t="n">
-        <v>0.5411250647660778</v>
+        <v>0.5109133417518325</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.9876591080171101</v>
+        <v>-0.9901759645920699</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1365798860437824</v>
+        <v>-0.2029735865993667</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.4122018160701671</v>
       </c>
       <c r="E88" t="n">
-        <v>0.7096584401219851</v>
+        <v>0.6766402410144605</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.844420219940505</v>
+        <v>-0.8406032235713508</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1138400317983514</v>
+        <v>-0.1820784827641001</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.4255702786647391</v>
       </c>
       <c r="E89" t="n">
-        <v>0.876101518084805</v>
+        <v>0.8583355642626841</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.7295065929612663</v>
+        <v>-0.7313119928933982</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.06337225671208742</v>
+        <v>-0.1181654363436857</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.4303326055077323</v>
       </c>
       <c r="E90" t="n">
-        <v>1.003271244952052</v>
+        <v>0.9965722195717958</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.5577826808464825</v>
+        <v>-0.5319246947217549</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.04503965600629831</v>
+        <v>-0.1001287512327011</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.4246861440734433</v>
       </c>
       <c r="E91" t="n">
-        <v>1.117936963919685</v>
+        <v>1.120442802360796</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.3660451156043606</v>
+        <v>-0.3387846784425539</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.06782830484448966</v>
+        <v>-0.1254405527223375</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.4067484066584811</v>
       </c>
       <c r="E92" t="n">
-        <v>1.169786727794451</v>
+        <v>1.180472743608962</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.2238466541669351</v>
+        <v>-0.1980500547879382</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.03032729927950078</v>
+        <v>-0.08763576146693752</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.3753701566732696</v>
       </c>
       <c r="E93" t="n">
-        <v>1.202170597196092</v>
+        <v>1.201583488063847</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.123003971122564</v>
+        <v>-0.09378702819298061</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.03339348852779452</v>
+        <v>-0.0845994785819485</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.3323772069674373</v>
       </c>
       <c r="E94" t="n">
-        <v>1.175366625579462</v>
+        <v>1.192477787447122</v>
       </c>
       <c r="F94" t="n">
-        <v>0.01747723545352241</v>
+        <v>0.06010796933483024</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.00227827853792252</v>
+        <v>-0.04482401538668011</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.2811655763379486</v>
       </c>
       <c r="E95" t="n">
-        <v>1.175815221029033</v>
+        <v>1.204133399040354</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09532822119305442</v>
+        <v>0.1463012564172559</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.04025463787754421</v>
+        <v>-0.08176624416360725</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.2263030262764257</v>
       </c>
       <c r="E96" t="n">
-        <v>1.093997707103823</v>
+        <v>1.121588688281103</v>
       </c>
       <c r="F96" t="n">
-        <v>0.173024953058699</v>
+        <v>0.2351215814131324</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.07448797974671287</v>
+        <v>-0.1034971521522846</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.1732469862025832</v>
       </c>
       <c r="E97" t="n">
-        <v>1.040931226448292</v>
+        <v>1.073892760867449</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2171368389331507</v>
+        <v>0.2847771626328052</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.04405589405548538</v>
+        <v>-0.0759219111662178</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.1260251171901422</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9306098002554478</v>
+        <v>0.9508863145760433</v>
       </c>
       <c r="F98" t="n">
-        <v>0.200910275811662</v>
+        <v>0.2656370901177889</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1021529398226938</v>
+        <v>-0.1304160271647689</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.08937133192500155</v>
       </c>
       <c r="E99" t="n">
-        <v>0.8908862796911824</v>
+        <v>0.9211877217953419</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1902352781310007</v>
+        <v>0.2389259856293162</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.09018567244344464</v>
+        <v>-0.116748819134515</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.06084252610344454</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8391199388298454</v>
+        <v>0.8606950189255139</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1823714786009825</v>
+        <v>0.2356441557614042</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.09230745021895796</v>
+        <v>-0.116785021574305</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.0390176302158204</v>
       </c>
       <c r="E101" t="n">
-        <v>0.7763732405783147</v>
+        <v>0.7977610123985485</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1651721716625298</v>
+        <v>0.2042865468268519</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.08159467607938548</v>
+        <v>-0.1040354666917694</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>0.01360905037617496</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7669857905388774</v>
+        <v>0.790021560379113</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1452262013574075</v>
+        <v>0.1731430044927965</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.06950778324691749</v>
+        <v>-0.08751456199459737</v>
       </c>
     </row>
   </sheetData>
